--- a/inspectPoint.xlsx
+++ b/inspectPoint.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>名称</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>1555107350862364672</t>
+  </si>
+  <si>
+    <t>1737664855931731968</t>
   </si>
   <si>
     <t>test1</t>
@@ -226,14 +229,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,148 +687,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,7 +1196,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1247,20 +1243,22 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1268,20 +1266,22 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -1289,20 +1289,22 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -1310,20 +1312,22 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -1331,20 +1335,22 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1352,20 +1358,22 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -1373,20 +1381,22 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -1394,20 +1404,22 @@
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1415,20 +1427,22 @@
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -1436,20 +1450,22 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -1457,20 +1473,22 @@
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1481,30 +1499,30 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
